--- a/テスト仕様書(掲示板).xlsx
+++ b/テスト仕様書(掲示板).xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0C9DD-E4A8-4C6F-B2FC-9AAC51C2EC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32BDB8B-8171-44EB-9DB7-7B8EE7CEDC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12777" windowHeight="13536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
-    <sheet name="記事投稿" sheetId="9" r:id="rId2"/>
-    <sheet name="記事投稿,DTB" sheetId="10" r:id="rId3"/>
-    <sheet name="入力値" sheetId="11" r:id="rId4"/>
+    <sheet name="SQL2" sheetId="12" r:id="rId2"/>
+    <sheet name="記事投稿" sheetId="9" r:id="rId3"/>
+    <sheet name="記事投稿,DTB" sheetId="10" r:id="rId4"/>
+    <sheet name="入力値" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -306,27 +307,6 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・http://localhost:8080/ex-bbs/postにアクセスする
-・1文字以上50文字以下の投稿者名を入力
-・1文字以上200文字以下の記事を入力</t>
-    <rPh sb="44" eb="48">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="50" eb="54">
-      <t>モジイカ</t>
-    </rPh>
-    <rPh sb="55" eb="59">
-      <t>トウコウシャメイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>キジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1222,6 +1202,28 @@
   </si>
   <si>
     <t>a0768062362173291691586563064738042241083597420400270670295345641521647236470848372166853588573858023312621683052378127068755362689920845202173165516799558679822729644404196140114013247903765649805367</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・http://localhost:8080/ex-bbs/postにアクセスする
+・TC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS comments;
+DROP TABLE IF EXISTS articles;
+CREATE TABLE articles(
+  id serial PRIMARY KEY, -- 投稿ID
+  name text NOT NULL,    -- 名前
+  content text NOT NULL  -- 記事内容
+);
+CREATE TABLE comments(
+  id serial PRIMARY KEY, -- コメントID
+  name text NOT NULL,    -- 名前
+  content text NOT NULL, -- コメント内容
+  article_id integer REFERENCES articles (id) ON DELETE CASCADE --投稿　ID
+);
+</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1274,7 +1276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -1492,7 +1500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1628,6 +1636,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1937,9 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08416EDA-BA60-4DD8-8C98-B8B7F123320A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1948,7 +1957,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="319.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1958,11 +1967,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608019C7-83AE-4BF7-A966-CECB8E4B1A74}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="235.65" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703F573D-7274-45CD-99EE-A6E3ABCA9868}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
@@ -2038,7 +2071,7 @@
     </row>
     <row r="4" spans="1:9" ht="65.45" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>26</v>
@@ -2053,7 +2086,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
@@ -2084,10 +2117,10 @@
         <v>33</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -2107,10 +2140,10 @@
         <v>33</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
@@ -2118,13 +2151,13 @@
     </row>
     <row r="8" spans="1:9" ht="92.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>33</v>
@@ -2133,7 +2166,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -2142,22 +2175,22 @@
     <row r="9" spans="1:9" ht="31.6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:9" ht="49.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -2165,22 +2198,22 @@
     </row>
     <row r="11" spans="1:9" ht="78.55" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -2188,13 +2221,13 @@
     </row>
     <row r="12" spans="1:9" ht="92.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>33</v>
@@ -2203,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -2222,22 +2255,22 @@
     </row>
     <row r="14" spans="1:9" ht="92.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -2245,22 +2278,22 @@
     </row>
     <row r="15" spans="1:9" ht="92.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>89</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -2596,12 +2629,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAFC943-BFA3-450D-A76D-7EB86D0510BC}">
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.7" x14ac:dyDescent="0.15"/>
@@ -2612,7 +2645,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>17</v>
@@ -2657,45 +2690,45 @@
         <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2727,7 +2760,7 @@
     </row>
     <row r="4" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>18</v>
@@ -2797,7 +2830,7 @@
     </row>
     <row r="6" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2939,7 +2972,7 @@
     </row>
     <row r="12" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>18</v>
@@ -2971,7 +3004,7 @@
     </row>
     <row r="13" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3003,7 +3036,7 @@
     </row>
     <row r="14" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7"/>
       <c r="D14" s="7"/>
@@ -3034,7 +3067,7 @@
     </row>
     <row r="15" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3088,7 +3121,7 @@
     </row>
     <row r="17" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>18</v>
@@ -3120,7 +3153,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
@@ -3152,7 +3185,7 @@
     </row>
     <row r="19" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="7"/>
       <c r="D19" s="7" t="s">
@@ -3180,7 +3213,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3234,7 +3267,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3260,7 +3293,7 @@
     </row>
     <row r="23" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3305,7 +3338,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3376,7 +3409,7 @@
     </row>
     <row r="28" spans="1:20" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>18</v>
@@ -3408,7 +3441,7 @@
     </row>
     <row r="29" spans="1:20" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3440,7 +3473,7 @@
     </row>
     <row r="30" spans="1:20" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>18</v>
@@ -3472,7 +3505,7 @@
     </row>
     <row r="31" spans="1:20" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3570,25 +3603,25 @@
     </row>
     <row r="35" spans="1:20" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="G35" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="47" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="7" t="s">
+      <c r="K35" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="47" t="s">
         <v>18</v>
       </c>
       <c r="M35" s="7"/>
@@ -3602,7 +3635,7 @@
     </row>
     <row r="36" spans="1:20" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3628,7 +3661,7 @@
     </row>
     <row r="37" spans="1:20" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3731,12 +3764,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DDB7C7-F4AC-4842-9CD1-53CA8706A158}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
@@ -3746,7 +3779,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -3767,7 +3800,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.7" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45"/>
@@ -3788,10 +3821,10 @@
     </row>
     <row r="3" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -3811,10 +3844,10 @@
     </row>
     <row r="4" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -3834,10 +3867,10 @@
     </row>
     <row r="5" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3857,10 +3890,10 @@
     </row>
     <row r="6" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>109</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>

--- a/テスト仕様書(掲示板).xlsx
+++ b/テスト仕様書(掲示板).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32BDB8B-8171-44EB-9DB7-7B8EE7CEDC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B355B-FE1C-4C27-9172-AE12675E0AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12777" windowHeight="13536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1224,6 +1224,41 @@
   article_id integer REFERENCES articles (id) ON DELETE CASCADE --投稿　ID
 );
 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当する場合はそれぞれ以下のエラーを入力箇所の上に表示する
+・投稿者名が未入力の場合「投稿者名を入力してください」
+・投稿者名が50より長い場合「投稿者名が長すぎます」
+・記事が未入力の場合「投稿内容を入力してください」
+・記事が200より長い場合「投稿内容が長すぎます」</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ニュウリョクカショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="96" eb="100">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>キジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1575,6 +1610,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1617,6 +1658,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1625,21 +1675,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1970,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608019C7-83AE-4BF7-A966-CECB8E4B1A74}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1994,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703F573D-7274-45CD-99EE-A6E3ABCA9868}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
@@ -2009,36 +2044,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.7" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="17.7" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="34">
         <v>44707</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="35.35" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -2143,7 +2178,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
@@ -2647,24 +2682,24 @@
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
@@ -3610,18 +3645,18 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="47" t="s">
+      <c r="G35" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="27" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="47" t="s">
+      <c r="K35" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="27" t="s">
         <v>18</v>
       </c>
       <c r="M35" s="7"/>
@@ -3781,176 +3816,177 @@
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="17.7" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A8" s="25"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B8:Q8"/>
     <mergeCell ref="B7:Q7"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B1:Q1"/>
@@ -3958,7 +3994,6 @@
     <mergeCell ref="B4:Q4"/>
     <mergeCell ref="B5:Q5"/>
     <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
